--- a/data/trans_camb/P3A_R1-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R1-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>11.44346112995533</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.7931937089756064</v>
+        <v>0.7931937089756091</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>4.800730439620654</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.309948104133299</v>
+        <v>0.7345146891676778</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.545442190330929</v>
+        <v>6.997358944487551</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.973955147331555</v>
+        <v>-4.148047077428981</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.238599808541474</v>
+        <v>2.296094617076479</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.748202314864799</v>
+        <v>4.79221091716402</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2873858855836596</v>
+        <v>0.2900808118357395</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3.757954825503187</v>
+        <v>3.693756604783493</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>7.753461974750459</v>
+        <v>7.991587222949627</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.2352473687892022</v>
+        <v>0.1121146696281097</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.338782989171806</v>
+        <v>9.167839102792986</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>15.92876811866233</v>
+        <v>15.80030151519295</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.911613735348447</v>
+        <v>6.566964679236953</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.548088753430501</v>
+        <v>7.564125911032255</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>10.01766484541264</v>
+        <v>10.08115728580267</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.686371833329088</v>
+        <v>5.688893811746297</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.633531092061439</v>
+        <v>8.663290537685373</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>12.67047913034396</v>
+        <v>12.8973721782051</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.193516468024212</v>
+        <v>5.38743681412864</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.6139522122185053</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.04255557185130018</v>
+        <v>0.04255557185130032</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.69514501697994</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.06009941441597149</v>
+        <v>0.03500215158103434</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.3544835976567399</v>
+        <v>0.3074975828258078</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1988080373204727</v>
+        <v>-0.199202178150015</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.2295616746639627</v>
+        <v>0.2832173544797418</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5781549385278529</v>
+        <v>0.5833882852376751</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02582521309072312</v>
+        <v>0.03015555569185747</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2843948696039774</v>
+        <v>0.2900039084331795</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.6218154038311794</v>
+        <v>0.6278300305628793</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.01865808096344231</v>
+        <v>0.006928807099994699</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5720477449519944</v>
+        <v>0.5572729620739816</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.008681982388332</v>
+        <v>0.9759643206910756</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3585275944615322</v>
+        <v>0.4033898396244162</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.285151721215916</v>
+        <v>1.369807853364801</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.774251296253497</v>
+        <v>1.810344773459309</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.958802762878876</v>
+        <v>0.9609854828002178</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8365263358431929</v>
+        <v>0.8262710793849605</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.259812090993424</v>
+        <v>1.279829648926432</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.5005332551535479</v>
+        <v>0.5205485584017545</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.033447119644197</v>
+        <v>1.229099414403083</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.743131401536163</v>
+        <v>6.767818828522278</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.793003638986927</v>
+        <v>5.029578428455862</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.6619891047956793</v>
+        <v>-0.9792202540119742</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.716299646343259</v>
+        <v>4.099976424724646</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.804864843000139</v>
+        <v>4.503104659951909</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7319094999844036</v>
+        <v>1.03990405129417</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>6.127820406831145</v>
+        <v>5.739053720931868</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>5.493321827085246</v>
+        <v>5.539274122309176</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.98214336354398</v>
+        <v>9.140109453323848</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.79619713376807</v>
+        <v>14.7142062505444</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.46232927132119</v>
+        <v>13.61414626497182</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.194233392012728</v>
+        <v>4.970029326146162</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>10.16457437466562</v>
+        <v>10.27043906903576</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.48208729745264</v>
+        <v>10.62254413261138</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.609772792018447</v>
+        <v>5.986925595763619</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>11.14038105433597</v>
+        <v>10.97636999113959</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>10.54420025026642</v>
+        <v>10.51236776318406</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.04306298964524814</v>
+        <v>0.05496309050763821</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2895920895441352</v>
+        <v>0.2922948124669532</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2033065619045793</v>
+        <v>0.2131304752722054</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.05300388096837198</v>
+        <v>-0.07315208623832696</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2759377060505823</v>
+        <v>0.3020701788385618</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3490770116955086</v>
+        <v>0.3268110097035902</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04040364322481108</v>
+        <v>0.05802246657755182</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3351626311186374</v>
+        <v>0.3281370080191052</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.3038685468686488</v>
+        <v>0.3074234904477911</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4610647831089574</v>
+        <v>0.4691409964384513</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.7668614100661146</v>
+        <v>0.7598485700070366</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.6631542026004263</v>
+        <v>0.6835584090938404</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4812262891001841</v>
+        <v>0.4545759018971889</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9613656148900684</v>
+        <v>0.9416203551362826</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9597041573395942</v>
+        <v>1.011190858157101</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3624913307942225</v>
+        <v>0.3845966019234458</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7122635562857318</v>
+        <v>0.7055034984777039</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.6696274052208401</v>
+        <v>0.6768289582006338</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>9.964083616281169</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>11.4774468983934</v>
+        <v>11.47744689839341</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>5.687355205887071</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.234737537411886</v>
+        <v>4.395608812499263</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>10.68079669556946</v>
+        <v>10.58560280776834</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.501204461514551</v>
+        <v>6.318160514608155</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.02176262361560453</v>
+        <v>0.0351017814430257</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>6.010864906473935</v>
+        <v>5.917871204957662</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>8.657997970640277</v>
+        <v>8.229375773428336</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.904370265121455</v>
+        <v>2.941226040297138</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>9.556831784099865</v>
+        <v>9.417036755630589</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>8.043307563686117</v>
+        <v>8.118779853836266</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.3149561537252</v>
+        <v>12.35262771547409</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>18.83254853575201</v>
+        <v>18.72422408155651</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.49950194318816</v>
+        <v>13.91977406763409</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.112709573965335</v>
+        <v>6.788197001653097</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>13.78831709801376</v>
+        <v>13.97716238285275</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>14.96377674756856</v>
+        <v>14.63740654636199</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>8.125168902123123</v>
+        <v>8.270418005799655</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>15.26048797137811</v>
+        <v>15.13466661094597</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>12.82433912982149</v>
+        <v>13.17148171295323</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.710211125200542</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8180792925922621</v>
+        <v>0.8180792925922625</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.3188353832139023</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1895016586570829</v>
+        <v>0.1917799313035559</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.4493999131029856</v>
+        <v>0.4744860322936005</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.277795850969573</v>
+        <v>0.2748855644437721</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.003676179459274202</v>
+        <v>0.001059067925469514</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3979842655209179</v>
+        <v>0.3805073544329395</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5529138196797347</v>
+        <v>0.5079056937494565</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1538884784297933</v>
+        <v>0.1567856667784365</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.5030084182311718</v>
+        <v>0.4880606414333887</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.4291246659786263</v>
+        <v>0.4234311814659078</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6321994850407533</v>
+        <v>0.6230568130784687</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.9527514226291633</v>
+        <v>0.9825719605579495</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.7023140163636346</v>
+        <v>0.7039887037279738</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5560800615325315</v>
+        <v>0.5368307299174644</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.104564266495073</v>
+        <v>1.145969167829874</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.226639567637444</v>
+        <v>1.186568982504447</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4864981104646183</v>
+        <v>0.49862141110224</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.914765304129307</v>
+        <v>0.9020243035778885</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.7726519229596275</v>
+        <v>0.7889014936960144</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>4.751615872935458</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>7.95437614126113</v>
+        <v>7.95437614126114</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>4.577791892306882</v>
+        <v>4.430149109590509</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.045666651938567</v>
+        <v>3.379043175429741</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.894363770636225</v>
+        <v>2.822950951840547</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-6.295560941406364</v>
+        <v>-5.789934821204762</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-5.089467844685707</v>
+        <v>-5.072065397948953</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>3.066022494137274</v>
+        <v>2.958146967221064</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.094246227154732</v>
+        <v>1.400342410041321</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.4518258095692154</v>
+        <v>0.8484172714536836</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>4.211149049400057</v>
+        <v>4.026661513551245</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>16.36329683457304</v>
+        <v>16.43548302289214</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>14.66736439037293</v>
+        <v>15.02419151299846</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13.1966779247567</v>
+        <v>13.15753318982789</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.928999270854857</v>
+        <v>5.827316802844497</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.667166141982408</v>
+        <v>5.944310617548432</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>12.51919119242256</v>
+        <v>12.77482940914735</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>9.282422806360554</v>
+        <v>9.433246704462633</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>9.041107340617236</v>
+        <v>9.06828088302133</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>11.15861037419125</v>
+        <v>11.61491636850829</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.2245828789503696</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.3759598296305341</v>
+        <v>0.3759598296305347</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1794471365560854</v>
+        <v>0.1630180084026048</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1214694322012026</v>
+        <v>0.1295760483876534</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1149527393977179</v>
+        <v>0.1082626013883713</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2884389872926835</v>
+        <v>-0.2611966973232734</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2361361344438183</v>
+        <v>-0.2326317069064016</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.124461510438036</v>
+        <v>0.1283818314759587</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04869784406975031</v>
+        <v>0.06067148557123928</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.02115145973228157</v>
+        <v>0.03424118346446201</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1713124138994011</v>
+        <v>0.1677560311814419</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.828008640142234</v>
+        <v>0.8482034881726763</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.7373981072454795</v>
+        <v>0.7590355393974973</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.6857874226180785</v>
+        <v>0.6680772700508397</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2958496326761429</v>
+        <v>0.3358424862091263</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3438564205561666</v>
+        <v>0.3638754551069661</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8067130671792199</v>
+        <v>0.8375198764541653</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4817945755684267</v>
+        <v>0.4905395397491106</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4825762923895688</v>
+        <v>0.4712245407361864</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.5949891544270151</v>
+        <v>0.6151532445544161</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>6.661166947030273</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>9.511250635593099</v>
+        <v>9.511250635593107</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>4.6273430524675</v>
@@ -1520,7 +1520,7 @@
         <v>8.89547335618083</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>8.836219377301099</v>
+        <v>8.836219377301106</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>4.448742107837811</v>
+        <v>4.500317359025894</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>9.141780249711088</v>
+        <v>9.187335435194244</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6.167618240401591</v>
+        <v>6.018552095027796</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.366491286193426</v>
+        <v>1.30436063759734</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>4.918100835694803</v>
+        <v>5.015716153405926</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>7.759034653897347</v>
+        <v>7.857059141464067</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>3.203013599055295</v>
+        <v>3.32542454699894</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>7.4649286294098</v>
+        <v>7.51662971665705</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>7.529000168999597</v>
+        <v>7.366816595285506</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>8.748660262504824</v>
+        <v>8.604968499988306</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>13.60017931270533</v>
+        <v>13.653360313643</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10.59149220611373</v>
+        <v>10.37184031567329</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.766655101204305</v>
+        <v>4.785755236528764</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>8.310968576248758</v>
+        <v>8.293930604500639</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>11.09101140148858</v>
+        <v>11.11105977034797</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>6.063889370099513</v>
+        <v>6.091609423256849</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>10.22449681487106</v>
+        <v>10.3531434379423</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>10.22236728790418</v>
+        <v>10.281609741094</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.5565660589635638</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.7947014876164888</v>
+        <v>0.7947014876164895</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.2816046563735939</v>
@@ -1625,7 +1625,7 @@
         <v>0.5413488235785727</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.5377428241590361</v>
+        <v>0.5377428241590364</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.2048969991525249</v>
+        <v>0.2038160964052807</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.4185639255797186</v>
+        <v>0.4137189319682799</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.2812512680499795</v>
+        <v>0.2723389860293496</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1091112879044733</v>
+        <v>0.09352767252548717</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.3892963420804378</v>
+        <v>0.3960626821426816</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.596749497558908</v>
+        <v>0.6204901702266118</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1874215128394407</v>
+        <v>0.19499890087522</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.4308901405659885</v>
+        <v>0.4399391015256021</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.4432984453922864</v>
+        <v>0.4309181950313211</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4446705559005643</v>
+        <v>0.4344350986402618</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.6862426305784827</v>
+        <v>0.6963285333983185</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.5348406979759478</v>
+        <v>0.5244957531691918</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.4260127356927511</v>
+        <v>0.4272666650646227</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.7438841739741393</v>
+        <v>0.7476045467528383</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.9957326416047322</v>
+        <v>0.9975813968229027</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3891363386245574</v>
+        <v>0.3867012013111835</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.6472238177624124</v>
+        <v>0.6640656051191973</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.6517059201376398</v>
+        <v>0.6482973545707806</v>
       </c>
     </row>
     <row r="34">
